--- a/DemoProject/target/test-classes/TestData.xlsx
+++ b/DemoProject/target/test-classes/TestData.xlsx
@@ -1206,10 +1206,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
